--- a/SmokeSuite/TestResource/Smoke/DS_IND_SMOKE.xlsx
+++ b/SmokeSuite/TestResource/Smoke/DS_IND_SMOKE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuite_BAU\GlobalTestSuiteAutomation\SmokeSuite\TestResource\Smoke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuiteAutomation\SmokeSuite\TestResource\Smoke\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
   <si>
     <t>serverAddress</t>
   </si>
@@ -335,10 +335,16 @@
     <t>1/1/2020</t>
   </si>
   <si>
-    <t>GTF M Muthu Kumar</t>
-  </si>
-  <si>
-    <t>CORE@WPP321</t>
+    <t>GTF Sai Kiran Vemula</t>
+  </si>
+  <si>
+    <t>CORE@WPP234</t>
+  </si>
+  <si>
+    <t>trnapac</t>
+  </si>
+  <si>
+    <t>https://wpp-trnapac.deltekenterprise.com</t>
   </si>
 </sst>
 </file>
@@ -848,7 +854,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>11</v>
@@ -904,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -1124,7 +1130,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1160,7 @@
         <v>76</v>
       </c>
       <c r="B3">
-        <v>1707106661</v>
+        <v>1707107986</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1162,7 +1168,7 @@
         <v>77</v>
       </c>
       <c r="B4">
-        <v>1707106661</v>
+        <v>1707107986</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1170,7 +1176,7 @@
         <v>78</v>
       </c>
       <c r="B5">
-        <v>1707106659</v>
+        <v>1707107986</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1178,7 +1184,7 @@
         <v>79</v>
       </c>
       <c r="B6">
-        <v>1707106659</v>
+        <v>1707107986</v>
       </c>
     </row>
   </sheetData>
@@ -1196,6 +1202,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
@@ -1504,7 +1513,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SmokeSuite/TestResource/Smoke/DS_IND_SMOKE.xlsx
+++ b/SmokeSuite/TestResource/Smoke/DS_IND_SMOKE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuiteAutomation\SmokeSuite\TestResource\Smoke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation2\GlobalTestSuiteAutomation\SmokeSuite\TestResource\Smoke\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="119">
   <si>
     <t>serverAddress</t>
   </si>
@@ -345,6 +345,51 @@
   </si>
   <si>
     <t>https://wpp-trnapac.deltekenterprise.com</t>
+  </si>
+  <si>
+    <t>1753 Account Director</t>
+  </si>
+  <si>
+    <t>1753 Admin</t>
+  </si>
+  <si>
+    <t>1753 Basic</t>
+  </si>
+  <si>
+    <t>1753 Biller</t>
+  </si>
+  <si>
+    <t>1753 Finance</t>
+  </si>
+  <si>
+    <t>1753 HR</t>
+  </si>
+  <si>
+    <t>1753 Management</t>
+  </si>
+  <si>
+    <t>1753 Production</t>
+  </si>
+  <si>
+    <t>1753 Project Manager</t>
+  </si>
+  <si>
+    <t>1753 Senior Finance</t>
+  </si>
+  <si>
+    <t>1/10/2021 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>1/10/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>2021-02</t>
+  </si>
+  <si>
+    <t>2021-01</t>
+  </si>
+  <si>
+    <t>1/1/2021</t>
   </si>
 </sst>
 </file>
@@ -851,19 +896,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -876,8 +921,11 @@
       <c r="D1" s="3">
         <v>1201</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="3">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -890,8 +938,11 @@
       <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -904,8 +955,11 @@
       <c r="D3" s="6">
         <v>443</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="6">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -918,8 +972,11 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -932,8 +989,11 @@
       <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -944,6 +1004,9 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -955,9 +1018,11 @@
     <hyperlink ref="D2" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="B2" r:id="rId6"/>
+    <hyperlink ref="E6" r:id="rId7"/>
+    <hyperlink ref="E2" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -966,7 +1031,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,23 +1204,29 @@
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>75</v>
       </c>
       <c r="B1">
         <v>1707</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
       <c r="B2">
         <v>1707</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1163,7 +1234,7 @@
         <v>1707107986</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1171,7 +1242,7 @@
         <v>1707107986</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1179,7 +1250,7 @@
         <v>1707107986</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1195,39 +1266,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3">
         <v>1707</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>94</v>
+        <v>114</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1244,14 +1324,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="33.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,7 +1341,7 @@
         <v>1707</v>
       </c>
       <c r="C1" s="3">
-        <v>1201</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1272,7 +1351,9 @@
       <c r="B2" s="10">
         <v>1707</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="10">
+        <v>1753</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -1281,7 +1362,9 @@
       <c r="B3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="11" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -1290,7 +1373,9 @@
       <c r="B4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
@@ -1308,48 +1393,60 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3">
         <v>1707</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="10">
         <v>1707</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="10">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>97</v>
+        <v>116</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1363,44 +1460,56 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3">
         <v>1707</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="10">
         <v>1707</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="10">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>97</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1411,44 +1520,56 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3">
         <v>1707</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="10">
         <v>1707</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="10">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>97</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1459,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,36 +1591,48 @@
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3">
         <v>1707</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>99</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1510,19 +1643,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
@@ -1535,8 +1668,11 @@
       <c r="D1" s="23">
         <v>1707</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="23">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>50</v>
       </c>
@@ -1549,8 +1685,11 @@
       <c r="D2" s="19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>7</v>
       </c>
@@ -1563,8 +1702,11 @@
       <c r="D3" s="19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>55</v>
       </c>
@@ -1577,8 +1719,11 @@
       <c r="D4" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
@@ -1591,8 +1736,11 @@
       <c r="D5" s="19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -1605,8 +1753,11 @@
       <c r="D6" s="19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>62</v>
       </c>
@@ -1619,8 +1770,11 @@
       <c r="D7" s="19" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>65</v>
       </c>
@@ -1633,8 +1787,11 @@
       <c r="D8" s="19" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>68</v>
       </c>
@@ -1647,8 +1804,11 @@
       <c r="D9" s="19" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>71</v>
       </c>
@@ -1661,8 +1821,11 @@
       <c r="D10" s="19" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>74</v>
       </c>
@@ -1674,6 +1837,9 @@
       </c>
       <c r="D11" s="21" t="s">
         <v>89</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
